--- a/2024TechPoc/ScriptPoC.xlsx
+++ b/2024TechPoc/ScriptPoC.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\FinancePoc\BizTechReport\2024TechPoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F0E0E1-09CB-439C-9464-2F2E1D2C3BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1C713C-BEA1-495C-AB9D-AE812E1DD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="24030" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="21810" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基礎パターン集(basicPattern)" sheetId="1" r:id="rId1"/>
-    <sheet name="ビジネスシート" sheetId="2" r:id="rId2"/>
+    <sheet name="OSSStudy(PythonModuleTest)" sheetId="3" r:id="rId2"/>
+    <sheet name="PIVOTBY_Testing" sheetId="6" r:id="rId3"/>
+    <sheet name="ビジネスシート(BizSheet)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +96,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>計算式(calculate)</t>
     <rPh sb="0" eb="3">
@@ -178,12 +180,69 @@
     <t>c3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>統計用関数組み込み処理(stat pynum graphic testing sheet)</t>
+    <rPh sb="0" eb="3">
+      <t>トウケイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rating</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +256,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,13 +305,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -395,6 +462,21 @@
     </rSty>
   </richStyles>
 </richStyleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51CDEF35-2E08-4A59-A8E6-FB95A64B687B}" name="テーブル2" displayName="テーブル2" ref="A5:F15" totalsRowShown="0">
+  <autoFilter ref="A5:F15" xr:uid="{51CDEF35-2E08-4A59-A8E6-FB95A64B687B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{07DC133F-3AB0-440F-93FF-FA581CE22B50}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{A48055B1-525B-4DCD-A3EA-B5B2F961FB71}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{91360E82-7146-42A5-8D1F-58B5326A5700}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{3F54235E-7EB5-426C-8998-9C4CE53EEA01}" name="列4"/>
+    <tableColumn id="5" xr3:uid="{C77ED7F2-11B2-45CD-A771-1A725DDDD0CA}" name="列5"/>
+    <tableColumn id="6" xr3:uid="{38264B0F-B4C6-48B9-B612-169B43F41407}" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,11 +740,31 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{282E5FFD-616E-4C89-BDA8-4993F2C80644}">
+  <we:reference id="wa104380862" version="3.0.0.0" store="ja-JP" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="3.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -740,10 +842,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC23D6A-1753-4627-9584-D0EEEA826FED}">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAB4E56-FBF9-4BD3-AB0F-9C135014C866}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="D2">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2:M4">_xlfn.PIVOTBY(C2:C6,A2:A6,D2:D6,_xleta.SUM)</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <v>2016</v>
+      </c>
+      <c r="I2">
+        <v>2017</v>
+      </c>
+      <c r="J2">
+        <v>2018</v>
+      </c>
+      <c r="K2">
+        <v>2019</v>
+      </c>
+      <c r="L2">
+        <v>2020</v>
+      </c>
+      <c r="M2" t="str">
+        <v>合計</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="J3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+      <c r="L3">
+        <v>8000</v>
+      </c>
+      <c r="M3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G4" t="str">
+        <v>合計</v>
+      </c>
+      <c r="H4">
+        <v>20000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4">
+        <v>4000</v>
+      </c>
+      <c r="K4">
+        <v>5000</v>
+      </c>
+      <c r="L4">
+        <v>8000</v>
+      </c>
+      <c r="M4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706463E6-2BFF-4766-912A-E15354093C2C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
